--- a/minigland.xlsx
+++ b/minigland.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrug001/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrug001/Desktop/nesi00119/mini-gland/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF07A60-B666-E344-9D04-1612E9AEE5C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21953D9C-EDED-E84B-AF1F-4CC9E4E97181}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27200" yWindow="740" windowWidth="22520" windowHeight="23220" xr2:uid="{C018111C-319E-5144-81D0-8C90BCD3CB14}"/>
+    <workbookView xWindow="14440" yWindow="980" windowWidth="22520" windowHeight="23220" xr2:uid="{C018111C-319E-5144-81D0-8C90BCD3CB14}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>STRIATED DUCT</t>
   </si>
   <si>
-    <t>duct - outter</t>
-  </si>
-  <si>
     <t>duct - inner</t>
   </si>
   <si>
@@ -89,10 +86,13 @@
     <t>apical to basal, 3D wedge</t>
   </si>
   <si>
-    <t>Minigland structure measurement</t>
-  </si>
-  <si>
     <t>cells in radial ring</t>
+  </si>
+  <si>
+    <t>Mini-gland structure measurement</t>
+  </si>
+  <si>
+    <t>duct - outer</t>
   </si>
 </sst>
 </file>
@@ -463,7 +463,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -483,19 +483,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -514,7 +514,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -534,12 +534,12 @@
         <v>1.5</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>0.77</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>23.2</v>
@@ -564,12 +564,12 @@
         <v>3.3</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>1.6</v>
@@ -589,12 +589,12 @@
         <v>1.5</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -610,7 +610,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>47.6</v>
@@ -619,12 +619,12 @@
         <v>5.2</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17">
         <v>8</v>
@@ -644,12 +644,12 @@
         <v>3.1</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D19">
         <v>13</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21">
         <v>4.2</v>
